--- a/db.xlsx
+++ b/db.xlsx
@@ -393,7 +393,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A33" sqref="A1:XFD33"/>
@@ -824,6 +824,146 @@
         <v>44737</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="n">
+        <v>7862</v>
+      </c>
+      <c r="C31" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>44769</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="n">
+        <v>5454</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>44769</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" t="n">
+        <v>12863.72</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>44769</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1099.95</v>
+      </c>
+      <c r="C34" t="n">
+        <v>500</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>44769</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="n">
+        <v>5316.73</v>
+      </c>
+      <c r="C35" t="n">
+        <v>500</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>44769</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="n">
+        <v>8796</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>44769</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" t="n">
+        <v>18474.21</v>
+      </c>
+      <c r="C37" t="n">
+        <v>12000</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>44769</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" t="n">
+        <v>14146.23</v>
+      </c>
+      <c r="C38" t="n">
+        <v>14145</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>44769</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" t="n">
+        <v>49739.95</v>
+      </c>
+      <c r="C39" t="n">
+        <v>49739</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>44769</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1</v>
+      </c>
+      <c r="B40" t="n">
+        <v>9611.969999999999</v>
+      </c>
+      <c r="C40" t="n">
+        <v>9610</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>44769</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
